--- a/data/chap8/8.2.xlsx
+++ b/data/chap8/8.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolders\桌面\free-excel-main\data\chap8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\free-excel\data\chap8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91885276-4C55-42D6-A70D-C6F3C0DC31D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46300E58-62C9-4270-A699-2C0CDF7F8203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6BF6379C-49B4-4DAB-87D6-E363FE66C7F6}"/>
+    <workbookView xWindow="17715" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{6BF6379C-49B4-4DAB-87D6-E363FE66C7F6}"/>
   </bookViews>
   <sheets>
     <sheet name="案例1" sheetId="2" r:id="rId1"/>
@@ -199,98 +199,114 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -602,16 +618,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -631,13 +647,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">TODAY()</f>
-        <v>44808</v>
+        <v>44861</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -652,13 +668,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f ca="1">TODAY()+5</f>
-        <v>44813</v>
+        <v>44866</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -673,13 +689,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f ca="1">TODAY()-3</f>
-        <v>44805</v>
+        <v>44858</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -694,13 +710,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f ca="1">TODAY()+2</f>
-        <v>44810</v>
+        <v>44863</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -715,13 +731,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f ca="1">TODAY()-4</f>
-        <v>44804</v>
+        <v>44857</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -736,13 +752,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <f ca="1">TODAY()-3</f>
-        <v>44805</v>
+        <v>44858</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -757,13 +773,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <f ca="1">TODAY()+1</f>
-        <v>44809</v>
+        <v>44862</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -778,13 +794,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <f ca="1">TODAY()+2</f>
-        <v>44810</v>
+        <v>44863</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -799,13 +815,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <f ca="1">TODAY()-5</f>
-        <v>44803</v>
+        <v>44856</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -822,18 +838,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="A2:F10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E2&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>